--- a/public/Excel/Book catalogue _Sample Excel Format.xlsx
+++ b/public/Excel/Book catalogue _Sample Excel Format.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>(1)
 S.NO</t>
@@ -39,70 +39,48 @@
 Edition</t>
   </si>
   <si>
+    <t>Publisher Catalogue format</t>
+  </si>
+  <si>
     <t>(5)
-Publication</t>
+Publication name</t>
   </si>
   <si>
     <t>(6)
+Place of Publication</t>
+  </si>
+  <si>
+    <t>(7)
 Publication Year</t>
   </si>
   <si>
-    <t>(7)
+    <t>(8)
 ISBN</t>
   </si>
   <si>
-    <t>(8)
+    <t>(9)
 Binding
 (Hard Bound /
 Paper Back)</t>
   </si>
   <si>
-    <t>(9)
+    <t>(10)
+Size (1/8 Demy , 1/4 Demy etc)</t>
+  </si>
+  <si>
+    <t>(11)
 Pages</t>
   </si>
   <si>
-    <t>(10) Currency ( Dollar / Pounds / Euro / INR )</t>
-  </si>
-  <si>
-    <t>(11) Currency</t>
-  </si>
-  <si>
-    <t>(12) Currency Conversion Rate</t>
-  </si>
-  <si>
-    <t>(13 )
-Price in INR</t>
-  </si>
-  <si>
-    <t>(15) Discount Amount (INR)</t>
-  </si>
-  <si>
-    <t>(16) Accepted Price (INR)</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>( Rupees ______________________________________________________________________________ Only)</t>
-  </si>
-  <si>
-    <t>Signature of Publishers</t>
-  </si>
-  <si>
-    <t>Date with Seal</t>
-  </si>
-  <si>
-    <t>Publisher Catalogue format</t>
+    <t>(12) 
+Currency (Dollar / Pounds / Euro / INR )</t>
+  </si>
+  <si>
+    <t>(13) 
+Price</t>
   </si>
   <si>
     <t>(14)
-Discount (%)</t>
-  </si>
-  <si>
-    <t>(17) Net Amount</t>
-  </si>
-  <si>
-    <t>(18)
 Subject</t>
   </si>
 </sst>
@@ -167,21 +145,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,89 +372,77 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
     <col min="4" max="4" width="7.28515625" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" customWidth="1"/>
-    <col min="7" max="7" width="7" customWidth="1"/>
-    <col min="9" max="9" width="6.28515625" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" customWidth="1"/>
-    <col min="17" max="17" width="7.5703125" customWidth="1"/>
-    <col min="18" max="18" width="7.7109375" customWidth="1"/>
+    <col min="5" max="6" width="7.85546875" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" customWidth="1"/>
+    <col min="8" max="8" width="7" customWidth="1"/>
+    <col min="11" max="11" width="6.28515625" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" s="1" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="J1" s="4"/>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="K2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" s="4" t="s">
+      <c r="M2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="N2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:14" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -497,12 +457,8 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-    </row>
-    <row r="4" spans="1:18" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:14" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -517,12 +473,8 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-    </row>
-    <row r="5" spans="1:18" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:14" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -535,60 +487,43 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
-      <c r="M5" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="M5" s="2"/>
       <c r="N5" s="2"/>
-      <c r="O5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="R5" s="2"/>
-    </row>
-    <row r="6" spans="1:18" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:18" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-    </row>
-    <row r="8" spans="1:18" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:18" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="P9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q9" s="6"/>
-    </row>
-    <row r="10" spans="1:18" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="P10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q10" s="6"/>
+    </row>
+    <row r="6" spans="1:14" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F6" s="4"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:14" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+    </row>
+    <row r="8" spans="1:14" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F8" s="4"/>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="1:14" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F9" s="4"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:14" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F10" s="4"/>
+      <c r="J10" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="A7:P7"/>
+  <mergeCells count="1">
+    <mergeCell ref="A7:M7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
